--- a/biology/Virologie/Bicaudavirus/Bicaudavirus.xlsx
+++ b/biology/Virologie/Bicaudavirus/Bicaudavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acidianus Two-tailed Virus (ATV) ou Bicaudavirus est un virus parasite d'une archée, Acidianus convivator, des sources hydrothermales acides. Il appartient à la famille monotypique des Bicaudaviridae et au genre Bicaudavirus représenté par la seule espèce Acidianus Two-tailed Virus. 
 Il possède la particularité d'effectuer une partie de son assemblage en dehors de toute cellule-hôte, alors que tous les autres virus connus en sont strictement incapables : lorsqu'il bourgeonne d'une cellule qu'il a infecté, il a la forme d'un citron. Ensuite, deux « bras » poussent de part et d'autre, quand la température est comprise entre 75 et 90 °C. Ces « bras » faciliteraient l'infection d'un nouvel hôte. L'archée hôte vit en effet à proximité des sources hydrothermales où les températures avoisinent les 80 °C.
